--- a/Income/GRMN_inc.xlsx
+++ b/Income/GRMN_inc.xlsx
@@ -1984,10 +1984,10 @@
         <v>0.5916</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.5923</v>
+        <v>0.5924</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5949</v>
+        <v>0.595</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.5945</v>
@@ -2235,16 +2235,16 @@
         <v>0.2637</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.254</v>
+        <v>0.2541</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2447</v>
+        <v>0.2448</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2595</v>
+        <v>0.2596</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2626</v>
+        <v>0.2627</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2597</v>
@@ -2365,13 +2365,13 @@
         <v>0.2588</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2482</v>
+        <v>0.2481</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.253</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2536</v>
+        <v>0.2535</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2179</v>
@@ -2495,7 +2495,7 @@
         <v>0.1839</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.154</v>
